--- a/deployment/ese/ESE Release Guideline.xlsx
+++ b/deployment/ese/ESE Release Guideline.xlsx
@@ -142,6 +142,54 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Make sure all necessary libraries are installed. </t>
+  </si>
+  <si>
+    <t>They are pilow, png.</t>
+  </si>
+  <si>
+    <t>Copy these folders below to folder &lt;ESE release&gt;/Lib/</t>
+  </si>
+  <si>
+    <t>In local repository, open /fteditor/version.h</t>
+  </si>
+  <si>
+    <t>Hereafter, we call build folder as &lt;ESE release&gt;</t>
+  </si>
+  <si>
+    <t>In &lt;ESE release&gt;/prerelease.txt</t>
+  </si>
+  <si>
+    <t>In &lt;ESE release&gt;/setup.iss</t>
+  </si>
+  <si>
+    <t>Copy these folders below from &lt;local repository&gt;/fteditor/ to &lt;ESE release&gt;/</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. </t>
+  </si>
+  <si>
+    <t>Copy &lt;local repository&gt;/fteditor/astcenc.exe to &lt;ESE release&gt;/</t>
+  </si>
+  <si>
+    <t>Copy &lt;local repository&gt;/fteditor/*.py to &lt;ESE release&gt;/</t>
+  </si>
+  <si>
+    <t>Run &lt;Qt folder&gt;/msvc2017bin/windeploy.exe  --release --force --no-translations &lt;ESE release&gt;/fteditor.exe</t>
+  </si>
+  <si>
+    <t>Copy &lt;local repository&gt;/deployment/ese/*  to &lt;ESE release&gt;</t>
+  </si>
+  <si>
     <r>
       <t>Copy &lt;python installation&gt;/Lib/site-packages/</t>
     </r>
@@ -164,7 +212,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> to &lt;ESE release&gt;/Lib/</t>
+      <t xml:space="preserve"> to &lt;ESE release&gt;/Lib/site-packages</t>
     </r>
   </si>
   <si>
@@ -190,56 +238,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> to &lt;ESE release&gt;/Lib/</t>
+      <t xml:space="preserve"> to &lt;ESE release&gt;/Lib/site-packages</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure all necessary libraries are installed. </t>
-  </si>
-  <si>
-    <t>They are pilow, png.</t>
-  </si>
-  <si>
-    <t>Copy these folders below to folder &lt;ESE release&gt;/Lib/</t>
-  </si>
-  <si>
-    <t>In local repository, open /fteditor/version.h</t>
-  </si>
-  <si>
-    <t>Copy &lt;local repository&gt;/deployment/ese/*.* to &lt;ESE release&gt;</t>
-  </si>
-  <si>
-    <t>Hereafter, we call build folder as &lt;ESE release&gt;</t>
-  </si>
-  <si>
-    <t>In &lt;ESE release&gt;/prerelease.txt</t>
-  </si>
-  <si>
-    <t>In &lt;ESE release&gt;/setup.iss</t>
-  </si>
-  <si>
-    <t>Copy these folders below from &lt;local repository&gt;/fteditor/ to &lt;ESE release&gt;/</t>
-  </si>
-  <si>
-    <t>Run &lt;Qt folder&gt;/msvc2017bin/windeploy.exe &lt;ESE release&gt;/fteditor.exe</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. </t>
-  </si>
-  <si>
-    <t>Copy &lt;local repository&gt;/fteditor/astcenc.exe to &lt;ESE release&gt;/</t>
-  </si>
-  <si>
-    <t>Copy &lt;local repository&gt;/fteditor/*.py to &lt;ESE release&gt;/</t>
   </si>
 </sst>
 </file>
@@ -350,16 +350,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>237693</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>170844</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190068</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -376,7 +376,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="1657350"/>
+          <a:off x="10144125" y="2228850"/>
           <a:ext cx="3457143" cy="4847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -735,7 +735,7 @@
   <dimension ref="B3:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
     <row r="14" spans="2:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -869,13 +869,13 @@
     <row r="27" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -924,10 +924,10 @@
     </row>
     <row r="37" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
     </row>
     <row r="44" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="49" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>28</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="53" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
@@ -1065,7 +1065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1084,13 +1086,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1107,7 +1109,7 @@
     <row r="9" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1139,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
